--- a/oLMpics/gpt2-results/gpt-neo-results.xlsx
+++ b/oLMpics/gpt2-results/gpt-neo-results.xlsx
@@ -486,20 +486,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.5825 0.5825 0.5925 0.5875 0.575 ]</t>
+          <t>[0.585  0.585  0.5925 0.5875 0.5775]</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>58.4</v>
+        <v>58.55</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8094658923543534</v>
+        <v>0.6729658505844682</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5759053410764564</v>
+        <v>0.5787703414941553</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5920946589235435</v>
+        <v>0.5922296585058447</v>
       </c>
     </row>
     <row r="3">
@@ -550,20 +550,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0.515  0.515  0.515  0.5275 0.52  ]</t>
+          <t>[0.5175 0.5175 0.5175 0.53   0.5225]</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>51.84999999999999</v>
+        <v>52.09999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6800873806582572</v>
+        <v>0.6800873806582501</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5116991261934174</v>
+        <v>0.5141991261934173</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5253008738065825</v>
+        <v>0.5278008738065825</v>
       </c>
     </row>
     <row r="5">
